--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgb2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.577195666666666</v>
+        <v>1.891505666666667</v>
       </c>
       <c r="H2">
-        <v>4.731586999999999</v>
+        <v>5.674517</v>
       </c>
       <c r="I2">
-        <v>0.4552443346622714</v>
+        <v>0.3964089626089911</v>
       </c>
       <c r="J2">
-        <v>0.4552443346622714</v>
+        <v>0.3964089626089912</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N2">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O2">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P2">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q2">
-        <v>0.4459967619605555</v>
+        <v>0.3452533768272222</v>
       </c>
       <c r="R2">
-        <v>4.013970857645</v>
+        <v>3.107280391445</v>
       </c>
       <c r="S2">
-        <v>0.0004608743411927407</v>
+        <v>0.0004076396480051142</v>
       </c>
       <c r="T2">
-        <v>0.0004608743411927407</v>
+        <v>0.0004076396480051144</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.577195666666666</v>
+        <v>1.891505666666667</v>
       </c>
       <c r="H3">
-        <v>4.731586999999999</v>
+        <v>5.674517</v>
       </c>
       <c r="I3">
-        <v>0.4552443346622714</v>
+        <v>0.3964089626089911</v>
       </c>
       <c r="J3">
-        <v>0.4552443346622714</v>
+        <v>0.3964089626089912</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.093691</v>
       </c>
       <c r="O3">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P3">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q3">
-        <v>0.04925634640188888</v>
+        <v>0.05907235247188888</v>
       </c>
       <c r="R3">
-        <v>0.4433071176169999</v>
+        <v>0.531651172247</v>
       </c>
       <c r="S3">
-        <v>5.08994417307892E-05</v>
+        <v>6.974655306709855E-05</v>
       </c>
       <c r="T3">
-        <v>5.089944173078921E-05</v>
+        <v>6.974655306709855E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.577195666666666</v>
+        <v>1.891505666666667</v>
       </c>
       <c r="H4">
-        <v>4.731586999999999</v>
+        <v>5.674517</v>
       </c>
       <c r="I4">
-        <v>0.4552443346622714</v>
+        <v>0.3964089626089911</v>
       </c>
       <c r="J4">
-        <v>0.4552443346622714</v>
+        <v>0.3964089626089912</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N4">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O4">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P4">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q4">
-        <v>210.1247263865478</v>
+        <v>195.2786326784313</v>
       </c>
       <c r="R4">
-        <v>1891.12253747893</v>
+        <v>1757.507694105882</v>
       </c>
       <c r="S4">
-        <v>0.2171340760771484</v>
+        <v>0.2305649080669014</v>
       </c>
       <c r="T4">
-        <v>0.2171340760771484</v>
+        <v>0.2305649080669014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.577195666666666</v>
+        <v>1.891505666666667</v>
       </c>
       <c r="H5">
-        <v>4.731586999999999</v>
+        <v>5.674517</v>
       </c>
       <c r="I5">
-        <v>0.4552443346622714</v>
+        <v>0.3964089626089911</v>
       </c>
       <c r="J5">
-        <v>0.4552443346622714</v>
+        <v>0.3964089626089912</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N5">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O5">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P5">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q5">
-        <v>0.0844193980583333</v>
+        <v>0.09178972598822221</v>
       </c>
       <c r="R5">
-        <v>0.7597745825249997</v>
+        <v>0.8261075338939999</v>
       </c>
       <c r="S5">
-        <v>8.72354639818283E-05</v>
+        <v>0.0001083758598863748</v>
       </c>
       <c r="T5">
-        <v>8.723546398182831E-05</v>
+        <v>0.0001083758598863748</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.577195666666666</v>
+        <v>1.891505666666667</v>
       </c>
       <c r="H6">
-        <v>4.731586999999999</v>
+        <v>5.674517</v>
       </c>
       <c r="I6">
-        <v>0.4552443346622714</v>
+        <v>0.3964089626089911</v>
       </c>
       <c r="J6">
-        <v>0.4552443346622714</v>
+        <v>0.3964089626089912</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N6">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O6">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P6">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q6">
-        <v>229.8440999338493</v>
+        <v>139.9667176807479</v>
       </c>
       <c r="R6">
-        <v>2068.596899404643</v>
+        <v>1259.700459126731</v>
       </c>
       <c r="S6">
-        <v>0.2375112493382177</v>
+        <v>0.1652582924811312</v>
       </c>
       <c r="T6">
-        <v>0.2375112493382177</v>
+        <v>0.1652582924811312</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>4.075965</v>
       </c>
       <c r="I7">
-        <v>0.3921643994988797</v>
+        <v>0.2847377243350503</v>
       </c>
       <c r="J7">
-        <v>0.3921643994988797</v>
+        <v>0.2847377243350503</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N7">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O7">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P7">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q7">
-        <v>0.384198196475</v>
+        <v>0.247993032725</v>
       </c>
       <c r="R7">
-        <v>3.457783768275</v>
+        <v>2.231937294525</v>
       </c>
       <c r="S7">
-        <v>0.0003970142964928405</v>
+        <v>0.0002928046453788341</v>
       </c>
       <c r="T7">
-        <v>0.0003970142964928405</v>
+        <v>0.0002928046453788342</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>4.075965</v>
       </c>
       <c r="I8">
-        <v>0.3921643994988797</v>
+        <v>0.2847377243350503</v>
       </c>
       <c r="J8">
-        <v>0.3921643994988797</v>
+        <v>0.2847377243350503</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.093691</v>
       </c>
       <c r="O8">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P8">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q8">
         <v>0.04243124853499999</v>
@@ -948,10 +948,10 @@
         <v>0.381881236815</v>
       </c>
       <c r="S8">
-        <v>4.384667195472391E-05</v>
+        <v>5.009845052400695E-05</v>
       </c>
       <c r="T8">
-        <v>4.384667195472392E-05</v>
+        <v>5.009845052400696E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>4.075965</v>
       </c>
       <c r="I9">
-        <v>0.3921643994988797</v>
+        <v>0.2847377243350503</v>
       </c>
       <c r="J9">
-        <v>0.3921643994988797</v>
+        <v>0.2847377243350503</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N9">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O9">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P9">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q9">
-        <v>181.00925342515</v>
+        <v>140.26724601321</v>
       </c>
       <c r="R9">
-        <v>1629.08328082635</v>
+        <v>1262.40521411889</v>
       </c>
       <c r="S9">
-        <v>0.1870473679122447</v>
+        <v>0.1656131254006125</v>
       </c>
       <c r="T9">
-        <v>0.1870473679122447</v>
+        <v>0.1656131254006126</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1042,10 +1042,10 @@
         <v>4.075965</v>
       </c>
       <c r="I10">
-        <v>0.3921643994988797</v>
+        <v>0.2847377243350503</v>
       </c>
       <c r="J10">
-        <v>0.3921643994988797</v>
+        <v>0.2847377243350503</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N10">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O10">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P10">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q10">
-        <v>0.07272200887499998</v>
+        <v>0.06593190406999999</v>
       </c>
       <c r="R10">
-        <v>0.6544980798749999</v>
+        <v>0.59338713663</v>
       </c>
       <c r="S10">
-        <v>7.514787278532401E-05</v>
+        <v>7.784560549237364E-05</v>
       </c>
       <c r="T10">
-        <v>7.514787278532401E-05</v>
+        <v>7.784560549237369E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>4.075965</v>
       </c>
       <c r="I11">
-        <v>0.3921643994988797</v>
+        <v>0.2847377243350503</v>
       </c>
       <c r="J11">
-        <v>0.3921643994988797</v>
+        <v>0.2847377243350503</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>145.729604</v>
+        <v>73.99751433333334</v>
       </c>
       <c r="N11">
-        <v>437.188812</v>
+        <v>221.992543</v>
       </c>
       <c r="O11">
-        <v>0.5217225811594521</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="P11">
-        <v>0.5217225811594522</v>
+        <v>0.4168883856547366</v>
       </c>
       <c r="Q11">
-        <v>197.99625512262</v>
+        <v>100.537092836555</v>
       </c>
       <c r="R11">
-        <v>1781.96629610358</v>
+        <v>904.8338355289951</v>
       </c>
       <c r="S11">
-        <v>0.204601022745402</v>
+        <v>0.1187038502330425</v>
       </c>
       <c r="T11">
-        <v>0.2046010227454021</v>
+        <v>0.1187038502330426</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.528653</v>
+        <v>0.813809</v>
       </c>
       <c r="H12">
-        <v>1.585959</v>
+        <v>2.441427</v>
       </c>
       <c r="I12">
-        <v>0.1525912658388489</v>
+        <v>0.1705525852430403</v>
       </c>
       <c r="J12">
-        <v>0.1525912658388489</v>
+        <v>0.1705525852430403</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="N12">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="O12">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="P12">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="Q12">
-        <v>0.1494916142516667</v>
+        <v>0.1485432004216667</v>
       </c>
       <c r="R12">
-        <v>1.345424528265</v>
+        <v>1.336888803795</v>
       </c>
       <c r="S12">
-        <v>0.0001544783619710888</v>
+        <v>0.0001753845204640645</v>
       </c>
       <c r="T12">
-        <v>0.0001544783619710888</v>
+        <v>0.0001753845204640646</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.528653</v>
+        <v>0.813809</v>
       </c>
       <c r="H13">
-        <v>1.585959</v>
+        <v>2.441427</v>
       </c>
       <c r="I13">
-        <v>0.1525912658388489</v>
+        <v>0.1705525852430403</v>
       </c>
       <c r="J13">
-        <v>0.1525912658388489</v>
+        <v>0.1705525852430403</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.093691</v>
       </c>
       <c r="O13">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="P13">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="Q13">
-        <v>0.01651000940766667</v>
+        <v>0.02541552633966667</v>
       </c>
       <c r="R13">
-        <v>0.148590084669</v>
+        <v>0.228739737057</v>
       </c>
       <c r="S13">
-        <v>1.706075101396651E-05</v>
+        <v>3.000803730342991E-05</v>
       </c>
       <c r="T13">
-        <v>1.706075101396651E-05</v>
+        <v>3.000803730342992E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.528653</v>
+        <v>0.813809</v>
       </c>
       <c r="H14">
-        <v>1.585959</v>
+        <v>2.441427</v>
       </c>
       <c r="I14">
-        <v>0.1525912658388489</v>
+        <v>0.1705525852430403</v>
       </c>
       <c r="J14">
-        <v>0.1525912658388489</v>
+        <v>0.1705525852430403</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="N14">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="O14">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="P14">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="Q14">
-        <v>70.43074573822334</v>
+        <v>84.017463749638</v>
       </c>
       <c r="R14">
-        <v>633.87671164401</v>
+        <v>756.1571737467419</v>
       </c>
       <c r="S14">
-        <v>0.07278017759395276</v>
+        <v>0.0991991726885391</v>
       </c>
       <c r="T14">
-        <v>0.07278017759395276</v>
+        <v>0.09919917268853912</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.528653</v>
+        <v>0.813809</v>
       </c>
       <c r="H15">
-        <v>1.585959</v>
+        <v>2.441427</v>
       </c>
       <c r="I15">
-        <v>0.1525912658388489</v>
+        <v>0.1705525852430403</v>
       </c>
       <c r="J15">
-        <v>0.1525912658388489</v>
+        <v>0.1705525852430403</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="N15">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="O15">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="P15">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="Q15">
-        <v>0.028296151825</v>
+        <v>0.03949198061266666</v>
       </c>
       <c r="R15">
-        <v>0.254665366425</v>
+        <v>0.355427825514</v>
       </c>
       <c r="S15">
-        <v>2.924005607868067E-05</v>
+        <v>4.66280655207857E-05</v>
       </c>
       <c r="T15">
-        <v>2.924005607868068E-05</v>
+        <v>4.662806552078572E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.813809</v>
+      </c>
+      <c r="H16">
+        <v>2.441427</v>
+      </c>
+      <c r="I16">
+        <v>0.1705525852430403</v>
+      </c>
+      <c r="J16">
+        <v>0.1705525852430403</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>73.99751433333334</v>
+      </c>
+      <c r="N16">
+        <v>221.992543</v>
+      </c>
+      <c r="O16">
+        <v>0.4168883856547366</v>
+      </c>
+      <c r="P16">
+        <v>0.4168883856547366</v>
+      </c>
+      <c r="Q16">
+        <v>60.21984314209568</v>
+      </c>
+      <c r="R16">
+        <v>541.978588278861</v>
+      </c>
+      <c r="S16">
+        <v>0.07110139193121294</v>
+      </c>
+      <c r="T16">
+        <v>0.07110139193121294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7076319999999999</v>
+      </c>
+      <c r="H17">
+        <v>2.122896</v>
+      </c>
+      <c r="I17">
+        <v>0.1483007278129181</v>
+      </c>
+      <c r="J17">
+        <v>0.1483007278129182</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1825283333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.547585</v>
+      </c>
+      <c r="O17">
+        <v>0.001028331058213739</v>
+      </c>
+      <c r="P17">
+        <v>0.001028331058213739</v>
+      </c>
+      <c r="Q17">
+        <v>0.1291628895733333</v>
+      </c>
+      <c r="R17">
+        <v>1.16246600616</v>
+      </c>
+      <c r="S17">
+        <v>0.0001525022443657257</v>
+      </c>
+      <c r="T17">
+        <v>0.0001525022443657258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.7076319999999999</v>
+      </c>
+      <c r="H18">
+        <v>2.122896</v>
+      </c>
+      <c r="I18">
+        <v>0.1483007278129181</v>
+      </c>
+      <c r="J18">
+        <v>0.1483007278129182</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.03123033333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.093691</v>
+      </c>
+      <c r="O18">
+        <v>0.0001759459539160193</v>
+      </c>
+      <c r="P18">
+        <v>0.0001759459539160193</v>
+      </c>
+      <c r="Q18">
+        <v>0.02209958323733333</v>
+      </c>
+      <c r="R18">
+        <v>0.198896249136</v>
+      </c>
+      <c r="S18">
+        <v>2.609291302148381E-05</v>
+      </c>
+      <c r="T18">
+        <v>2.609291302148382E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.7076319999999999</v>
+      </c>
+      <c r="H19">
+        <v>2.122896</v>
+      </c>
+      <c r="I19">
+        <v>0.1483007278129181</v>
+      </c>
+      <c r="J19">
+        <v>0.1483007278129182</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>103.239782</v>
+      </c>
+      <c r="N19">
+        <v>309.719346</v>
+      </c>
+      <c r="O19">
+        <v>0.5816339432625932</v>
+      </c>
+      <c r="P19">
+        <v>0.5816339432625932</v>
+      </c>
+      <c r="Q19">
+        <v>73.05577341622399</v>
+      </c>
+      <c r="R19">
+        <v>657.5019607460159</v>
+      </c>
+      <c r="S19">
+        <v>0.08625673710654011</v>
+      </c>
+      <c r="T19">
+        <v>0.08625673710654012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.7076319999999999</v>
+      </c>
+      <c r="H20">
+        <v>2.122896</v>
+      </c>
+      <c r="I20">
+        <v>0.1483007278129181</v>
+      </c>
+      <c r="J20">
+        <v>0.1483007278129182</v>
+      </c>
+      <c r="K20">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="L20">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>0.528653</v>
-      </c>
-      <c r="H16">
-        <v>1.585959</v>
-      </c>
-      <c r="I16">
-        <v>0.1525912658388489</v>
-      </c>
-      <c r="J16">
-        <v>0.1525912658388489</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>145.729604</v>
-      </c>
-      <c r="N16">
-        <v>437.188812</v>
-      </c>
-      <c r="O16">
-        <v>0.5217225811594521</v>
-      </c>
-      <c r="P16">
-        <v>0.5217225811594522</v>
-      </c>
-      <c r="Q16">
-        <v>77.04039234341201</v>
-      </c>
-      <c r="R16">
-        <v>693.3635310907081</v>
-      </c>
-      <c r="S16">
-        <v>0.07961030907583237</v>
-      </c>
-      <c r="T16">
-        <v>0.07961030907583239</v>
+      <c r="M20">
+        <v>0.04852733333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.145582</v>
+      </c>
+      <c r="O20">
+        <v>0.0002733940705404138</v>
+      </c>
+      <c r="P20">
+        <v>0.0002733940705404139</v>
+      </c>
+      <c r="Q20">
+        <v>0.03433949394133333</v>
+      </c>
+      <c r="R20">
+        <v>0.309055445472</v>
+      </c>
+      <c r="S20">
+        <v>4.054453964087965E-05</v>
+      </c>
+      <c r="T20">
+        <v>4.054453964087967E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.7076319999999999</v>
+      </c>
+      <c r="H21">
+        <v>2.122896</v>
+      </c>
+      <c r="I21">
+        <v>0.1483007278129181</v>
+      </c>
+      <c r="J21">
+        <v>0.1483007278129182</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>73.99751433333334</v>
+      </c>
+      <c r="N21">
+        <v>221.992543</v>
+      </c>
+      <c r="O21">
+        <v>0.4168883856547366</v>
+      </c>
+      <c r="P21">
+        <v>0.4168883856547366</v>
+      </c>
+      <c r="Q21">
+        <v>52.36300906272533</v>
+      </c>
+      <c r="R21">
+        <v>471.267081564528</v>
+      </c>
+      <c r="S21">
+        <v>0.06182485100934994</v>
+      </c>
+      <c r="T21">
+        <v>0.06182485100934996</v>
       </c>
     </row>
   </sheetData>
